--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value595.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value595.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.221761215393065</v>
+        <v>1.073631167411804</v>
       </c>
       <c r="B1">
-        <v>1.337731443270681</v>
+        <v>1.773496150970459</v>
       </c>
       <c r="C1">
-        <v>1.270829393261513</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.436189592965352</v>
+        <v>1.873334407806396</v>
       </c>
       <c r="E1">
-        <v>1.85015456749984</v>
+        <v>1.156263589859009</v>
       </c>
     </row>
   </sheetData>
